--- a/ExcelDataCollection/Complete/EffectofEucalytpusGlobulusWoodAutohydrolysis.xlsx
+++ b/ExcelDataCollection/Complete/EffectofEucalytpusGlobulusWoodAutohydrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\OneDrive\Documents\University\Fourth Year\Thesis\Papers\ExcelDataCollection\Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\OneDrive\Documents\University\Fourth Year\Thesis\HemicelluloseThesis\ExcelDataCollection\Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="8_{E9E45C58-F0AA-440B-B683-9B4DB218608D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{61D1C3BC-326F-453E-A2DA-4966A2509CDC}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="8_{E9E45C58-F0AA-440B-B683-9B4DB218608D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{94323E6B-E3C9-490A-A09C-FCD5AECE647E}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3660" windowWidth="19286" windowHeight="12120" activeTab="1" xr2:uid="{991B84EF-6A5F-4F76-9209-80E693D6BBE3}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" activeTab="1" xr2:uid="{991B84EF-6A5F-4F76-9209-80E693D6BBE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -653,7 +653,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -788,7 +788,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -817,7 +817,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -849,7 +849,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -881,7 +881,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -913,7 +913,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>54</v>
@@ -945,7 +945,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>60</v>
@@ -977,7 +977,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>66</v>
